--- a/jayud-ocean-ship/jayud-ocean-ship-web/src/main/resources/static/海运.xlsx
+++ b/jayud-ocean-ship/jayud-ocean-ship-web/src/main/resources/static/海运.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>SHENZHEN JIAYUDA GLOBAL SUPPLY CHAIN CO., LTD.</t>
   </si>
@@ -284,7 +284,10 @@
     </r>
   </si>
   <si>
-    <t>{goodone.name}  {goodone.bulkCargoAmount}  {goodone.totalWeight} {goodone.volume}</t>
+    <t>{goodone.label}</t>
+  </si>
+  <si>
+    <t>{goodone.name}  {goodone.bulkCargoAmount}/{goodone.bulkCargoUnit}  {goodone.totalWeight}KG   {goodone.volume}</t>
   </si>
   <si>
     <r>
@@ -453,24 +456,6 @@
     <t>(CBM)</t>
   </si>
   <si>
-    <t>集装箱号</t>
-  </si>
-  <si>
-    <t>封条</t>
-  </si>
-  <si>
-    <t>船型</t>
-  </si>
-  <si>
-    <t>件数</t>
-  </si>
-  <si>
-    <t>重量</t>
-  </si>
-  <si>
-    <t>体积</t>
-  </si>
-  <si>
     <t>{cabinetNumber}</t>
   </si>
   <si>
@@ -478,6 +463,9 @@
   </si>
   <si>
     <t>{cabinetType}/{cabinetSize}</t>
+  </si>
+  <si>
+    <t>{goodtwo.bulkCargoUnit}</t>
   </si>
   <si>
     <t>{goodtwo.bulkCargoAmount}</t>
@@ -717,10 +705,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -803,9 +791,75 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,8 +873,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -836,43 +905,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -888,60 +929,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1008,19 +996,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,7 +1044,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,7 +1068,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,37 +1140,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,91 +1176,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1624,16 +1612,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1663,25 +1660,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1708,10 +1696,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1720,16 +1708,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1738,119 +1726,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1995,18 +1983,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2196,15 +2172,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2389,7 +2356,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3030,13 +2997,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>61</xdr:row>
+          <xdr:row>60</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>63</xdr:row>
+          <xdr:row>62</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
@@ -3052,7 +3019,239 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2962275" y="10677525"/>
+              <a:off x="2962275" y="10506075"/>
+              <a:ext cx="342900" cy="209550"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vert="horz" anchor="ctr" anchorCtr="0" upright="1"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>514350</xdr:colOff>
+          <xdr:row>62</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1041"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3600450" y="10515600"/>
+              <a:ext cx="342900" cy="209550"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vert="horz" anchor="ctr" anchorCtr="0" upright="1"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>61</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>63</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1042" name="Check Box 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1042"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2962275" y="10696575"/>
               <a:ext cx="342900" cy="209550"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3157,10 +3356,10 @@
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
+            <xdr:cNvPr id="1043" name="Check Box 19" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1041"/>
+                  <a14:compatExt spid="_x0000_s1043"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3261,246 +3460,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>62</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>64</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1042" name="Check Box 18" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1042"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2962275" y="10868025"/>
-              <a:ext cx="342900" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vert="horz" anchor="ctr" anchorCtr="0" upright="1"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="zh-CN"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>62</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
-          <xdr:row>64</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1043" name="Check Box 19" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1043"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3600450" y="10858500"/>
-              <a:ext cx="342900" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vert="horz" anchor="ctr" anchorCtr="0" upright="1"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="zh-CN"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>63</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
-          <xdr:row>65</xdr:row>
+          <xdr:row>64</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
@@ -3516,7 +3483,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2971800" y="11049000"/>
+              <a:off x="2971800" y="10877550"/>
               <a:ext cx="342900" cy="209550"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3610,13 +3577,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>63</xdr:row>
+          <xdr:row>62</xdr:row>
           <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>504825</xdr:colOff>
-          <xdr:row>65</xdr:row>
+          <xdr:row>64</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
@@ -3632,7 +3599,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3590925" y="11029950"/>
+              <a:off x="3590925" y="10858500"/>
               <a:ext cx="342900" cy="209550"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3726,13 +3693,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>64</xdr:row>
+          <xdr:row>63</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>66</xdr:row>
+          <xdr:row>65</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
@@ -3748,7 +3715,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2962275" y="11220450"/>
+              <a:off x="2962275" y="11049000"/>
               <a:ext cx="342900" cy="209550"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3842,13 +3809,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>180975</xdr:colOff>
-          <xdr:row>64</xdr:row>
+          <xdr:row>63</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>523875</xdr:colOff>
-          <xdr:row>66</xdr:row>
+          <xdr:row>65</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
@@ -3864,7 +3831,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3609975" y="11210925"/>
+              <a:off x="3609975" y="11039475"/>
               <a:ext cx="342900" cy="209550"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3958,13 +3925,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
-          <xdr:row>65</xdr:row>
+          <xdr:row>64</xdr:row>
           <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>590550</xdr:colOff>
-          <xdr:row>67</xdr:row>
+          <xdr:row>66</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
@@ -3980,7 +3947,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2990850" y="11372850"/>
+              <a:off x="2990850" y="11201400"/>
               <a:ext cx="342900" cy="219075"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4074,13 +4041,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
-          <xdr:row>65</xdr:row>
+          <xdr:row>64</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
-          <xdr:row>67</xdr:row>
+          <xdr:row>66</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
@@ -4096,7 +4063,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3619500" y="11382375"/>
+              <a:off x="3619500" y="11210925"/>
               <a:ext cx="342900" cy="219075"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4190,13 +4157,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>553085</xdr:colOff>
-          <xdr:row>59</xdr:row>
+          <xdr:row>58</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>208915</xdr:colOff>
-          <xdr:row>60</xdr:row>
+          <xdr:row>59</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
@@ -4212,7 +4179,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2610485" y="10191750"/>
+              <a:off x="2610485" y="10020300"/>
               <a:ext cx="341630" cy="209550"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4306,13 +4273,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
-          <xdr:row>59</xdr:row>
+          <xdr:row>58</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>60</xdr:row>
+          <xdr:row>59</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
@@ -4328,7 +4295,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3629025" y="10191750"/>
+              <a:off x="3629025" y="10020300"/>
               <a:ext cx="342900" cy="209550"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4677,10 +4644,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:H58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4701,11 +4668,11 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="94" t="s">
+      <c r="I1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="4"/>
@@ -4716,9 +4683,9 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="93"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4"/>
@@ -4729,9 +4696,9 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="97"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="93"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="4"/>
@@ -4742,11 +4709,11 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="98" t="s">
+      <c r="I4" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="98"/>
-      <c r="K4" s="99"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="95"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4"/>
@@ -4757,11 +4724,11 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="100" t="s">
+      <c r="I5" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="100"/>
-      <c r="K5" s="101"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="97"/>
     </row>
     <row r="6" ht="14.25" spans="1:11">
       <c r="A6" s="7"/>
@@ -4772,9 +4739,9 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="104"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="100"/>
     </row>
     <row r="7" ht="14.25" spans="1:11">
       <c r="A7" s="10"/>
@@ -4787,7 +4754,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="105"/>
+      <c r="K7" s="101"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="12" t="s">
@@ -4797,11 +4764,11 @@
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
-      <c r="I8" s="106" t="s">
+      <c r="I8" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="107"/>
-      <c r="K8" s="108"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="104"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="14" t="s">
@@ -4814,9 +4781,9 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="110"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="106"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="14"/>
@@ -4827,11 +4794,11 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="111" t="s">
+      <c r="I10" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="111"/>
-      <c r="K10" s="112"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="108"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="14"/>
@@ -4842,11 +4809,11 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="16"/>
-      <c r="I11" s="113" t="s">
+      <c r="I11" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="113"/>
-      <c r="K11" s="114"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="110"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="14"/>
@@ -4857,11 +4824,11 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="115" t="s">
+      <c r="I12" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="115"/>
-      <c r="K12" s="116"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="112"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="14"/>
@@ -4872,11 +4839,11 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="16"/>
-      <c r="I13" s="115" t="s">
+      <c r="I13" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="115"/>
-      <c r="K13" s="116"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="112"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="17" t="s">
@@ -4886,11 +4853,11 @@
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
-      <c r="I14" s="117" t="s">
+      <c r="I14" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="118"/>
-      <c r="K14" s="119"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="115"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="19" t="s">
@@ -4903,11 +4870,11 @@
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="83" t="s">
+      <c r="I15" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="84"/>
-      <c r="K15" s="110"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="106"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="19"/>
@@ -4918,9 +4885,9 @@
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
       <c r="H16" s="21"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="110"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="106"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="19"/>
@@ -4931,9 +4898,9 @@
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="110"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="106"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="19"/>
@@ -4944,9 +4911,9 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="110"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="106"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="19"/>
@@ -4957,9 +4924,9 @@
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
       <c r="H19" s="21"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="110"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="106"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="19"/>
@@ -4970,9 +4937,9 @@
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="21"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="110"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="106"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="22"/>
@@ -4983,9 +4950,9 @@
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
       <c r="H21" s="24"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="110"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="106"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="17" t="s">
@@ -4995,9 +4962,9 @@
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="112"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="108"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="19" t="s">
@@ -5010,11 +4977,11 @@
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
       <c r="H23" s="21"/>
-      <c r="I23" s="121" t="s">
+      <c r="I23" s="117" t="s">
         <v>17</v>
       </c>
       <c r="J23" s="18"/>
-      <c r="K23" s="110"/>
+      <c r="K23" s="106"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="19"/>
@@ -5025,9 +4992,9 @@
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="21"/>
-      <c r="I24" s="109"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="110"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="106"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="19"/>
@@ -5038,9 +5005,9 @@
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="110"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="106"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="19"/>
@@ -5051,9 +5018,9 @@
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
       <c r="H26" s="21"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="110"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="106"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="19"/>
@@ -5064,9 +5031,9 @@
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="21"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="110"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="106"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="19"/>
@@ -5077,9 +5044,9 @@
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
       <c r="H28" s="21"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="110"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="106"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="22"/>
@@ -5090,9 +5057,9 @@
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
       <c r="H29" s="24"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="110"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="106"/>
     </row>
     <row r="30" ht="14.25" spans="1:11">
       <c r="A30" s="25" t="s">
@@ -5107,7 +5074,7 @@
       <c r="H30" s="26"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="122"/>
+      <c r="K30" s="118"/>
     </row>
     <row r="31" ht="14.25" spans="1:11">
       <c r="A31" s="10"/>
@@ -5118,9 +5085,9 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="123"/>
-      <c r="K31" s="124"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="119"/>
+      <c r="K31" s="120"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="28" t="s">
@@ -5135,11 +5102,11 @@
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="29"/>
-      <c r="I32" s="125" t="s">
+      <c r="I32" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="J32" s="126"/>
-      <c r="K32" s="127"/>
+      <c r="J32" s="122"/>
+      <c r="K32" s="123"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="30" t="s">
@@ -5154,11 +5121,11 @@
       <c r="F33" s="31"/>
       <c r="G33" s="31"/>
       <c r="H33" s="32"/>
-      <c r="I33" s="128" t="s">
+      <c r="I33" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="129"/>
-      <c r="K33" s="130"/>
+      <c r="J33" s="125"/>
+      <c r="K33" s="126"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="17" t="s">
@@ -5173,9 +5140,9 @@
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="33"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="116"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="112"/>
     </row>
     <row r="35" ht="14.25" spans="1:11">
       <c r="A35" s="34" t="s">
@@ -5190,9 +5157,9 @@
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
       <c r="H35" s="36"/>
-      <c r="I35" s="131"/>
-      <c r="J35" s="131"/>
-      <c r="K35" s="132"/>
+      <c r="I35" s="127"/>
+      <c r="J35" s="127"/>
+      <c r="K35" s="128"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="37" t="s">
@@ -5207,7 +5174,7 @@
       <c r="H36" s="38"/>
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
-      <c r="K36" s="133"/>
+      <c r="K36" s="129"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="39" t="s">
@@ -5224,22 +5191,24 @@
       <c r="H37" s="40"/>
       <c r="I37" s="40"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="134"/>
+      <c r="K37" s="130"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="19"/>
+      <c r="A38" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="B38" s="42"/>
       <c r="C38" s="42"/>
       <c r="D38" s="42"/>
       <c r="E38" s="43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
       <c r="J38" s="20"/>
-      <c r="K38" s="135"/>
+      <c r="K38" s="131"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="44"/>
@@ -5252,7 +5221,7 @@
       <c r="H39" s="20"/>
       <c r="I39" s="20"/>
       <c r="J39" s="20"/>
-      <c r="K39" s="135"/>
+      <c r="K39" s="131"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="44"/>
@@ -5265,7 +5234,7 @@
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
-      <c r="K40" s="135"/>
+      <c r="K40" s="131"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="44"/>
@@ -5278,7 +5247,7 @@
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
-      <c r="K41" s="135"/>
+      <c r="K41" s="131"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="44"/>
@@ -5291,7 +5260,7 @@
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
-      <c r="K42" s="135"/>
+      <c r="K42" s="131"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="44"/>
@@ -5304,7 +5273,7 @@
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
-      <c r="K43" s="135"/>
+      <c r="K43" s="131"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="44"/>
@@ -5317,7 +5286,7 @@
       <c r="H44" s="20"/>
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
-      <c r="K44" s="135"/>
+      <c r="K44" s="131"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="44"/>
@@ -5330,7 +5299,7 @@
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
-      <c r="K45" s="135"/>
+      <c r="K45" s="131"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="44"/>
@@ -5343,7 +5312,7 @@
       <c r="H46" s="20"/>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
-      <c r="K46" s="135"/>
+      <c r="K46" s="131"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="44"/>
@@ -5356,7 +5325,7 @@
       <c r="H47" s="20"/>
       <c r="I47" s="20"/>
       <c r="J47" s="20"/>
-      <c r="K47" s="135"/>
+      <c r="K47" s="131"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="45"/>
@@ -5369,35 +5338,35 @@
       <c r="H48" s="23"/>
       <c r="I48" s="23"/>
       <c r="J48" s="23"/>
-      <c r="K48" s="136"/>
+      <c r="K48" s="132"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B49" s="48"/>
       <c r="C49" s="49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D49" s="50"/>
       <c r="E49" s="51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F49" s="50"/>
       <c r="G49" s="52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H49" s="53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I49" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="J49" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="K49" s="134" t="s">
+      <c r="J49" s="133" t="s">
         <v>40</v>
+      </c>
+      <c r="K49" s="130" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -5409,556 +5378,533 @@
       <c r="F50" s="57"/>
       <c r="G50" s="58"/>
       <c r="H50" s="59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I50" s="58"/>
-      <c r="J50" s="138" t="s">
-        <v>42</v>
-      </c>
-      <c r="K50" s="139" t="s">
+      <c r="J50" s="134" t="s">
         <v>43</v>
+      </c>
+      <c r="K50" s="135" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B51" s="61"/>
       <c r="C51" s="60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D51" s="61"/>
       <c r="E51" s="60"/>
       <c r="F51" s="61"/>
       <c r="G51" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="H51" s="63"/>
-      <c r="I51" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="J51" s="141" t="s">
+      <c r="H51" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="K51" s="142" t="s">
+      <c r="I51" s="136" t="s">
         <v>49</v>
       </c>
+      <c r="J51" s="137" t="s">
+        <v>50</v>
+      </c>
+      <c r="K51" s="138" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="65"/>
-      <c r="C52" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="D52" s="65"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="H52" s="67"/>
-      <c r="I52" s="143" t="s">
-        <v>53</v>
-      </c>
-      <c r="J52" s="144" t="s">
-        <v>54</v>
-      </c>
-      <c r="K52" s="145" t="s">
-        <v>55</v>
-      </c>
+      <c r="A52" s="60"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="136"/>
+      <c r="J52" s="137"/>
+      <c r="K52" s="138"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="64"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="66"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="143"/>
-      <c r="J53" s="144"/>
-      <c r="K53" s="145"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="136"/>
+      <c r="J53" s="137"/>
+      <c r="K53" s="138"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="64"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="66"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="143"/>
-      <c r="J54" s="144"/>
-      <c r="K54" s="145"/>
+      <c r="A54" s="60"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="136"/>
+      <c r="J54" s="137"/>
+      <c r="K54" s="138"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="64"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="143"/>
-      <c r="J55" s="144"/>
-      <c r="K55" s="145"/>
+      <c r="A55" s="60"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="136"/>
+      <c r="J55" s="137"/>
+      <c r="K55" s="138"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="64"/>
       <c r="B56" s="65"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="65"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="66"/>
       <c r="G56" s="66"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="143"/>
-      <c r="J56" s="144"/>
-      <c r="K56" s="145"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="68"/>
-      <c r="B57" s="69"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="70"/>
-      <c r="I57" s="70"/>
-      <c r="J57" s="70"/>
-      <c r="K57" s="146"/>
+      <c r="H56" s="66"/>
+      <c r="I56" s="66"/>
+      <c r="J56" s="66"/>
+      <c r="K56" s="139"/>
+    </row>
+    <row r="57" ht="14.25" spans="1:11">
+      <c r="A57" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="68"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="140" t="s">
+        <v>53</v>
+      </c>
+      <c r="J57" s="141" t="s">
+        <v>54</v>
+      </c>
+      <c r="K57" s="142" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="58" ht="14.25" spans="1:11">
-      <c r="A58" s="71" t="s">
+      <c r="A58" s="10"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="101"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="72"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="72"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="72"/>
-      <c r="H58" s="73"/>
-      <c r="I58" s="147" t="s">
+      <c r="B59" s="71"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="J58" s="148" t="s">
+      <c r="H59" s="73"/>
+      <c r="I59" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="K58" s="149" t="s">
+      <c r="J59" s="38"/>
+      <c r="K59" s="129"/>
+    </row>
+    <row r="60" ht="15" spans="1:11">
+      <c r="A60" s="74" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25" spans="1:11">
-      <c r="A59" s="10"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="105"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="74" t="s">
-        <v>60</v>
       </c>
       <c r="B60" s="75"/>
       <c r="C60" s="75"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="75"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="37" t="s">
+      <c r="D60" s="76"/>
+      <c r="E60" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="F60" s="78"/>
+      <c r="G60" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="H60" s="77"/>
-      <c r="I60" s="37" t="s">
+      <c r="H60" s="80"/>
+      <c r="I60" s="80"/>
+      <c r="J60" s="143"/>
+      <c r="K60" s="144" t="s">
         <v>62</v>
       </c>
-      <c r="J60" s="38"/>
-      <c r="K60" s="133"/>
-    </row>
-    <row r="61" ht="15" spans="1:11">
-      <c r="A61" s="78" t="s">
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="81"/>
+      <c r="B61" s="82"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="79"/>
-      <c r="C61" s="79"/>
-      <c r="D61" s="80"/>
-      <c r="E61" s="81" t="s">
+      <c r="F61" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="F61" s="82"/>
-      <c r="G61" s="83" t="s">
+      <c r="G61" s="85"/>
+      <c r="H61" s="85"/>
+      <c r="I61" s="89"/>
+      <c r="J61" s="89"/>
+      <c r="K61" s="145" t="s">
         <v>65</v>
       </c>
-      <c r="H61" s="84"/>
-      <c r="I61" s="84"/>
-      <c r="J61" s="150"/>
-      <c r="K61" s="151" t="s">
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="86" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="85"/>
-      <c r="B62" s="86"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="87"/>
-      <c r="E62" s="88" t="s">
+      <c r="B62" s="87"/>
+      <c r="C62" s="87"/>
+      <c r="D62" s="88"/>
+      <c r="E62" s="89"/>
+      <c r="F62" s="89"/>
+      <c r="G62" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="F62" s="88" t="s">
+      <c r="H62" s="85"/>
+      <c r="I62" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="G62" s="89"/>
-      <c r="H62" s="89"/>
-      <c r="I62" s="93"/>
-      <c r="J62" s="93"/>
-      <c r="K62" s="152" t="s">
+      <c r="J62" s="89"/>
+      <c r="K62" s="146"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="86" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="90" t="s">
+      <c r="B63" s="87"/>
+      <c r="C63" s="87"/>
+      <c r="D63" s="88"/>
+      <c r="E63" s="89"/>
+      <c r="F63" s="89"/>
+      <c r="G63" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="H63" s="85"/>
+      <c r="I63" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="J63" s="89"/>
+      <c r="K63" s="146"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="91"/>
-      <c r="C63" s="91"/>
-      <c r="D63" s="92"/>
-      <c r="E63" s="93"/>
-      <c r="F63" s="93"/>
-      <c r="G63" s="89" t="s">
+      <c r="B64" s="87"/>
+      <c r="C64" s="87"/>
+      <c r="D64" s="88"/>
+      <c r="E64" s="89"/>
+      <c r="F64" s="89"/>
+      <c r="G64" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="H64" s="85"/>
+      <c r="I64" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="J64" s="89"/>
+      <c r="K64" s="146"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="H63" s="89"/>
-      <c r="I63" s="93" t="s">
+      <c r="B65" s="87"/>
+      <c r="C65" s="87"/>
+      <c r="D65" s="88"/>
+      <c r="E65" s="89"/>
+      <c r="F65" s="89"/>
+      <c r="G65" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="J63" s="93"/>
-      <c r="K63" s="153"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="90" t="s">
+      <c r="H65" s="85"/>
+      <c r="I65" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="91"/>
-      <c r="C64" s="91"/>
-      <c r="D64" s="92"/>
-      <c r="E64" s="93"/>
-      <c r="F64" s="93"/>
-      <c r="G64" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="H64" s="89"/>
-      <c r="I64" s="93" t="s">
+      <c r="J65" s="89"/>
+      <c r="K65" s="146"/>
+    </row>
+    <row r="66" ht="14.25" spans="1:11">
+      <c r="A66" s="147" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="148"/>
+      <c r="C66" s="148"/>
+      <c r="D66" s="149"/>
+      <c r="E66" s="150"/>
+      <c r="F66" s="149"/>
+      <c r="G66" s="151" t="s">
         <v>72</v>
       </c>
-      <c r="J64" s="93"/>
-      <c r="K64" s="153"/>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="90" t="s">
-        <v>74</v>
-      </c>
-      <c r="B65" s="91"/>
-      <c r="C65" s="91"/>
-      <c r="D65" s="92"/>
-      <c r="E65" s="93"/>
-      <c r="F65" s="93"/>
-      <c r="G65" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="H65" s="89"/>
-      <c r="I65" s="93" t="s">
-        <v>72</v>
-      </c>
-      <c r="J65" s="93"/>
-      <c r="K65" s="153"/>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="90" t="s">
+      <c r="H66" s="152"/>
+      <c r="I66" s="147" t="s">
+        <v>73</v>
+      </c>
+      <c r="J66" s="149"/>
+      <c r="K66" s="169"/>
+    </row>
+    <row r="67" ht="14.25" spans="1:11">
+      <c r="A67" s="10"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="119"/>
+      <c r="K67" s="120"/>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="153" t="s">
         <v>75</v>
       </c>
-      <c r="B66" s="91"/>
-      <c r="C66" s="91"/>
-      <c r="D66" s="92"/>
-      <c r="E66" s="93"/>
-      <c r="F66" s="93"/>
-      <c r="G66" s="89" t="s">
+      <c r="B68" s="154"/>
+      <c r="C68" s="154"/>
+      <c r="D68" s="154"/>
+      <c r="E68" s="154"/>
+      <c r="F68" s="154"/>
+      <c r="G68" s="154"/>
+      <c r="H68" s="154"/>
+      <c r="I68" s="154"/>
+      <c r="J68" s="154"/>
+      <c r="K68" s="104"/>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="155" t="s">
         <v>76</v>
       </c>
-      <c r="H66" s="89"/>
-      <c r="I66" s="93" t="s">
+      <c r="B69" s="105"/>
+      <c r="C69" s="105"/>
+      <c r="D69" s="105"/>
+      <c r="E69" s="105"/>
+      <c r="F69" s="105"/>
+      <c r="G69" s="105"/>
+      <c r="H69" s="105"/>
+      <c r="I69" s="105"/>
+      <c r="J69" s="105"/>
+      <c r="K69" s="106"/>
+    </row>
+    <row r="70" ht="14.25" spans="1:11">
+      <c r="A70" s="147"/>
+      <c r="B70" s="148"/>
+      <c r="C70" s="148"/>
+      <c r="D70" s="148"/>
+      <c r="E70" s="148"/>
+      <c r="F70" s="148"/>
+      <c r="G70" s="148"/>
+      <c r="H70" s="148"/>
+      <c r="I70" s="148"/>
+      <c r="J70" s="148"/>
+      <c r="K70" s="170"/>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="156" t="s">
         <v>77</v>
       </c>
-      <c r="J66" s="93"/>
-      <c r="K66" s="153"/>
-    </row>
-    <row r="67" ht="14.25" spans="1:11">
-      <c r="A67" s="154" t="s">
+      <c r="B71" s="157"/>
+      <c r="C71" s="157"/>
+      <c r="D71" s="158"/>
+      <c r="E71" s="158"/>
+      <c r="F71" s="158"/>
+      <c r="G71" s="158"/>
+      <c r="H71" s="158"/>
+      <c r="I71" s="158"/>
+      <c r="J71" s="158"/>
+      <c r="K71" s="158"/>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="159" t="s">
         <v>78</v>
       </c>
-      <c r="B67" s="155"/>
-      <c r="C67" s="155"/>
-      <c r="D67" s="156"/>
-      <c r="E67" s="157"/>
-      <c r="F67" s="156"/>
-      <c r="G67" s="158" t="s">
-        <v>76</v>
-      </c>
-      <c r="H67" s="159"/>
-      <c r="I67" s="154" t="s">
-        <v>77</v>
-      </c>
-      <c r="J67" s="156"/>
-      <c r="K67" s="176"/>
-    </row>
-    <row r="68" ht="14.25" spans="1:11">
-      <c r="A68" s="10"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="123"/>
-      <c r="K68" s="124"/>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="160" t="s">
+      <c r="B72" s="157"/>
+      <c r="C72" s="157"/>
+      <c r="D72" s="158"/>
+      <c r="E72" s="158"/>
+      <c r="F72" s="158"/>
+      <c r="G72" s="158"/>
+      <c r="H72" s="158"/>
+      <c r="I72" s="158"/>
+      <c r="J72" s="158"/>
+      <c r="K72" s="158"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="159" t="s">
         <v>79</v>
       </c>
-      <c r="B69" s="161"/>
-      <c r="C69" s="161"/>
-      <c r="D69" s="161"/>
-      <c r="E69" s="161"/>
-      <c r="F69" s="161"/>
-      <c r="G69" s="161"/>
-      <c r="H69" s="161"/>
-      <c r="I69" s="161"/>
-      <c r="J69" s="161"/>
-      <c r="K69" s="108"/>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="162" t="s">
+      <c r="B73" s="157"/>
+      <c r="C73" s="157"/>
+      <c r="D73" s="158"/>
+      <c r="E73" s="158"/>
+      <c r="F73" s="158"/>
+      <c r="G73" s="158"/>
+      <c r="H73" s="158"/>
+      <c r="I73" s="158"/>
+      <c r="J73" s="158"/>
+      <c r="K73" s="158"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="159" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="157"/>
+      <c r="C74" s="157"/>
+      <c r="D74" s="158"/>
+      <c r="E74" s="158"/>
+      <c r="F74" s="158"/>
+      <c r="G74" s="158"/>
+      <c r="H74" s="158"/>
+      <c r="I74" s="158"/>
+      <c r="J74" s="158"/>
+      <c r="K74" s="158"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="159" t="s">
+        <v>68</v>
+      </c>
+      <c r="B75" s="157"/>
+      <c r="C75" s="157"/>
+      <c r="D75" s="158"/>
+      <c r="E75" s="158"/>
+      <c r="F75" s="158"/>
+      <c r="G75" s="158"/>
+      <c r="H75" s="158"/>
+      <c r="I75" s="158"/>
+      <c r="J75" s="158"/>
+      <c r="K75" s="158"/>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="160" t="s">
         <v>80</v>
       </c>
-      <c r="B70" s="109"/>
-      <c r="C70" s="109"/>
-      <c r="D70" s="109"/>
-      <c r="E70" s="109"/>
-      <c r="F70" s="109"/>
-      <c r="G70" s="109"/>
-      <c r="H70" s="109"/>
-      <c r="I70" s="109"/>
-      <c r="J70" s="109"/>
-      <c r="K70" s="110"/>
-    </row>
-    <row r="71" ht="14.25" spans="1:11">
-      <c r="A71" s="154"/>
-      <c r="B71" s="155"/>
-      <c r="C71" s="155"/>
-      <c r="D71" s="155"/>
-      <c r="E71" s="155"/>
-      <c r="F71" s="155"/>
-      <c r="G71" s="155"/>
-      <c r="H71" s="155"/>
-      <c r="I71" s="155"/>
-      <c r="J71" s="155"/>
-      <c r="K71" s="177"/>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="163" t="s">
-        <v>81</v>
-      </c>
-      <c r="B72" s="164"/>
-      <c r="C72" s="164"/>
-      <c r="D72" s="165"/>
-      <c r="E72" s="165"/>
-      <c r="F72" s="165"/>
-      <c r="G72" s="165"/>
-      <c r="H72" s="165"/>
-      <c r="I72" s="165"/>
-      <c r="J72" s="165"/>
-      <c r="K72" s="165"/>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="166" t="s">
-        <v>82</v>
-      </c>
-      <c r="B73" s="164"/>
-      <c r="C73" s="164"/>
-      <c r="D73" s="165"/>
-      <c r="E73" s="165"/>
-      <c r="F73" s="165"/>
-      <c r="G73" s="165"/>
-      <c r="H73" s="165"/>
-      <c r="I73" s="165"/>
-      <c r="J73" s="165"/>
-      <c r="K73" s="165"/>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="166" t="s">
-        <v>83</v>
-      </c>
-      <c r="B74" s="164"/>
-      <c r="C74" s="164"/>
-      <c r="D74" s="165"/>
-      <c r="E74" s="165"/>
-      <c r="F74" s="165"/>
-      <c r="G74" s="165"/>
-      <c r="H74" s="165"/>
-      <c r="I74" s="165"/>
-      <c r="J74" s="165"/>
-      <c r="K74" s="165"/>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="166" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" s="164"/>
-      <c r="C75" s="164"/>
-      <c r="D75" s="165"/>
-      <c r="E75" s="165"/>
-      <c r="F75" s="165"/>
-      <c r="G75" s="165"/>
-      <c r="H75" s="165"/>
-      <c r="I75" s="165"/>
-      <c r="J75" s="165"/>
-      <c r="K75" s="165"/>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="166" t="s">
-        <v>72</v>
-      </c>
-      <c r="B76" s="164"/>
-      <c r="C76" s="164"/>
-      <c r="D76" s="165"/>
-      <c r="E76" s="165"/>
-      <c r="F76" s="165"/>
-      <c r="G76" s="165"/>
-      <c r="H76" s="165"/>
-      <c r="I76" s="165"/>
-      <c r="J76" s="165"/>
-      <c r="K76" s="165"/>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="167" t="s">
-        <v>84</v>
-      </c>
-      <c r="B77" s="168" t="e">
+      <c r="B76" s="161" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C77" s="168"/>
-      <c r="D77" s="165"/>
-      <c r="E77" s="165"/>
-      <c r="F77" s="165"/>
-      <c r="G77" s="165"/>
-      <c r="H77" s="165"/>
-      <c r="I77" s="165"/>
-      <c r="J77" s="165"/>
-      <c r="K77" s="165"/>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="167" t="s">
-        <v>85</v>
-      </c>
-      <c r="B78" s="168">
+      <c r="C76" s="161"/>
+      <c r="D76" s="158"/>
+      <c r="E76" s="158"/>
+      <c r="F76" s="158"/>
+      <c r="G76" s="158"/>
+      <c r="H76" s="158"/>
+      <c r="I76" s="158"/>
+      <c r="J76" s="158"/>
+      <c r="K76" s="158"/>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="160" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="161">
         <f>A44</f>
         <v>0</v>
       </c>
-      <c r="C78" s="168"/>
-      <c r="D78" s="165"/>
-      <c r="E78" s="165"/>
-      <c r="F78" s="165"/>
-      <c r="G78" s="165"/>
-      <c r="H78" s="165"/>
-      <c r="I78" s="165"/>
-      <c r="J78" s="165"/>
-      <c r="K78" s="165"/>
+      <c r="C77" s="161"/>
+      <c r="D77" s="158"/>
+      <c r="E77" s="158"/>
+      <c r="F77" s="158"/>
+      <c r="G77" s="158"/>
+      <c r="H77" s="158"/>
+      <c r="I77" s="158"/>
+      <c r="J77" s="158"/>
+      <c r="K77" s="158"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="160" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="162"/>
+      <c r="C78" s="163"/>
+      <c r="D78" s="158"/>
+      <c r="E78" s="158"/>
+      <c r="F78" s="158"/>
+      <c r="G78" s="158"/>
+      <c r="H78" s="158"/>
+      <c r="I78" s="158"/>
+      <c r="J78" s="158"/>
+      <c r="K78" s="158"/>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="167" t="s">
-        <v>86</v>
-      </c>
-      <c r="B79" s="169"/>
-      <c r="C79" s="170"/>
-      <c r="D79" s="165"/>
-      <c r="E79" s="165"/>
-      <c r="F79" s="165"/>
-      <c r="G79" s="165"/>
-      <c r="H79" s="165"/>
-      <c r="I79" s="165"/>
-      <c r="J79" s="165"/>
-      <c r="K79" s="165"/>
+      <c r="A79" s="160" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" s="164">
+        <f>J44+B78</f>
+        <v>0</v>
+      </c>
+      <c r="C79" s="165"/>
+      <c r="D79" s="158"/>
+      <c r="E79" s="158"/>
+      <c r="F79" s="158"/>
+      <c r="G79" s="158"/>
+      <c r="H79" s="158"/>
+      <c r="I79" s="158"/>
+      <c r="J79" s="158"/>
+      <c r="K79" s="158"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="167" t="s">
-        <v>87</v>
-      </c>
-      <c r="B80" s="171">
-        <f>J44+B79</f>
-        <v>0</v>
-      </c>
-      <c r="C80" s="172"/>
-      <c r="D80" s="165"/>
-      <c r="E80" s="165"/>
-      <c r="F80" s="165"/>
-      <c r="G80" s="165"/>
-      <c r="H80" s="165"/>
-      <c r="I80" s="165"/>
-      <c r="J80" s="165"/>
-      <c r="K80" s="165"/>
+      <c r="A80" s="166" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="158"/>
+      <c r="C80" s="158"/>
+      <c r="D80" s="158"/>
+      <c r="E80" s="158"/>
+      <c r="F80" s="158"/>
+      <c r="G80" s="158"/>
+      <c r="H80" s="158"/>
+      <c r="I80" s="158"/>
+      <c r="J80" s="158"/>
+      <c r="K80" s="158"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="173" t="s">
-        <v>88</v>
-      </c>
-      <c r="B81" s="165"/>
-      <c r="C81" s="165"/>
-      <c r="D81" s="165"/>
-      <c r="E81" s="165"/>
-      <c r="F81" s="165"/>
-      <c r="G81" s="165"/>
-      <c r="H81" s="165"/>
-      <c r="I81" s="165"/>
-      <c r="J81" s="165"/>
-      <c r="K81" s="165"/>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="174" t="s">
-        <v>89</v>
-      </c>
-      <c r="B82" s="175"/>
-      <c r="C82" s="175"/>
-      <c r="D82" s="175"/>
-      <c r="E82" s="175"/>
-      <c r="F82" s="175"/>
-      <c r="G82" s="175"/>
-      <c r="H82" s="175"/>
-      <c r="I82" s="175"/>
-      <c r="J82" s="175"/>
-      <c r="K82" s="175"/>
+      <c r="A81" s="167" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="168"/>
+      <c r="C81" s="168"/>
+      <c r="D81" s="168"/>
+      <c r="E81" s="168"/>
+      <c r="F81" s="168"/>
+      <c r="G81" s="168"/>
+      <c r="H81" s="168"/>
+      <c r="I81" s="168"/>
+      <c r="J81" s="168"/>
+      <c r="K81" s="168"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A57:K57" name="区域1_1"/>
-    <protectedRange sqref="A57:F57" name="区域1_1_1"/>
-    <protectedRange sqref="I57:K57" name="区域1_3"/>
+    <protectedRange sqref="A56:K56" name="区域1_1"/>
+    <protectedRange sqref="A56:F56" name="区域1_1_1"/>
+    <protectedRange sqref="I56:K56" name="区域1_3"/>
   </protectedRanges>
-  <mergeCells count="93">
+  <mergeCells count="90">
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="I6:K6"/>
@@ -6002,18 +5948,18 @@
     <mergeCell ref="A36:K36"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="E37:K37"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="A58:H58"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:K60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="A62:D62"/>
     <mergeCell ref="G62:H62"/>
     <mergeCell ref="I62:J62"/>
     <mergeCell ref="A63:D63"/>
@@ -6028,19 +5974,16 @@
     <mergeCell ref="A66:D66"/>
     <mergeCell ref="G66:H66"/>
     <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="A68:K68"/>
     <mergeCell ref="A69:K69"/>
     <mergeCell ref="A70:K70"/>
-    <mergeCell ref="A71:K71"/>
+    <mergeCell ref="B76:C76"/>
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
     <mergeCell ref="G49:G50"/>
     <mergeCell ref="I49:I50"/>
-    <mergeCell ref="K62:K67"/>
+    <mergeCell ref="K61:K66"/>
     <mergeCell ref="A1:H6"/>
     <mergeCell ref="A9:H13"/>
     <mergeCell ref="A15:H21"/>
@@ -6051,14 +5994,14 @@
     <mergeCell ref="A49:B50"/>
     <mergeCell ref="C49:D50"/>
     <mergeCell ref="E49:F50"/>
-    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="A60:D61"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G62:H67">
-      <formula1>$A$75:$A$80</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G61:H66">
+      <formula1>$A$74:$A$79</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I62:J67">
-      <formula1>$A$83:$A$86</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I61:J66">
+      <formula1>$A$82:$A$85</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6186,13 +6129,13 @@
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>219075</xdr:colOff>
-                    <xdr:row>61</xdr:row>
+                    <xdr:row>60</xdr:row>
                     <xdr:rowOff>133350</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>63</xdr:row>
+                    <xdr:row>62</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6203,6 +6146,50 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="1041" name="Check Box 17" r:id="rId9">
+              <controlPr defaultSize="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>60</xdr:row>
+                    <xdr:rowOff>142875</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>514350</xdr:colOff>
+                    <xdr:row>62</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1042" name="Check Box 18" r:id="rId10">
+              <controlPr defaultSize="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>219075</xdr:colOff>
+                    <xdr:row>61</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>63</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1043" name="Check Box 19" r:id="rId11">
               <controlPr defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6224,63 +6211,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1042" name="Check Box 18" r:id="rId10">
-              <controlPr defaultSize="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>219075</xdr:colOff>
-                    <xdr:row>62</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>64</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1043" name="Check Box 19" r:id="rId11">
-              <controlPr defaultSize="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>62</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>514350</xdr:colOff>
-                    <xdr:row>64</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
             <control shapeId="1044" name="Check Box 20" r:id="rId12">
               <controlPr defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>228600</xdr:colOff>
-                    <xdr:row>63</xdr:row>
+                    <xdr:row>62</xdr:row>
                     <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>571500</xdr:colOff>
-                    <xdr:row>65</xdr:row>
+                    <xdr:row>64</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6296,13 +6239,13 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>161925</xdr:colOff>
-                    <xdr:row>63</xdr:row>
+                    <xdr:row>62</xdr:row>
                     <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>504825</xdr:colOff>
-                    <xdr:row>65</xdr:row>
+                    <xdr:row>64</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6318,13 +6261,13 @@
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>219075</xdr:colOff>
-                    <xdr:row>64</xdr:row>
+                    <xdr:row>63</xdr:row>
                     <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>66</xdr:row>
+                    <xdr:row>65</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6340,13 +6283,13 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>180975</xdr:colOff>
-                    <xdr:row>64</xdr:row>
+                    <xdr:row>63</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>523875</xdr:colOff>
-                    <xdr:row>66</xdr:row>
+                    <xdr:row>65</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6362,13 +6305,13 @@
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>247650</xdr:colOff>
-                    <xdr:row>65</xdr:row>
+                    <xdr:row>64</xdr:row>
                     <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>590550</xdr:colOff>
-                    <xdr:row>67</xdr:row>
+                    <xdr:row>66</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6384,13 +6327,13 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>190500</xdr:colOff>
-                    <xdr:row>65</xdr:row>
+                    <xdr:row>64</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>533400</xdr:colOff>
-                    <xdr:row>67</xdr:row>
+                    <xdr:row>66</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6406,13 +6349,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>553085</xdr:colOff>
-                    <xdr:row>59</xdr:row>
+                    <xdr:row>58</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>208915</xdr:colOff>
-                    <xdr:row>60</xdr:row>
+                    <xdr:row>59</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6428,13 +6371,13 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>200025</xdr:colOff>
-                    <xdr:row>59</xdr:row>
+                    <xdr:row>58</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>542925</xdr:colOff>
-                    <xdr:row>60</xdr:row>
+                    <xdr:row>59</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>

--- a/jayud-ocean-ship/jayud-ocean-ship-web/src/main/resources/static/海运.xlsx
+++ b/jayud-ocean-ship/jayud-ocean-ship-web/src/main/resources/static/海运.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
   <si>
     <t>SHENZHEN JIAYUDA GLOBAL SUPPLY CHAIN CO., LTD.</t>
   </si>
@@ -85,7 +85,7 @@
     <t>{delivery.company}   {delivery.contacts}   {delivery.phone}   {delivery.address}</t>
   </si>
   <si>
-    <t xml:space="preserve">        Combine            Split</t>
+    <t xml:space="preserve">       Combine：{whether}         Split：{whether2}</t>
   </si>
   <si>
     <r>
@@ -110,10 +110,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">                   Shipped Bill / Original</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                   Seaway Bill</t>
+    <t xml:space="preserve">          {whether3}       Shipped Bill / Original</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          {whether4}       Seaway Bill</t>
   </si>
   <si>
     <r>
@@ -138,7 +138,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">                   Surrender / Telex Rease</t>
+    <t xml:space="preserve">          {whether5}       Surrender / Telex Rease</t>
   </si>
   <si>
     <t>{shipping.company}   {shipping.contacts}   {shipping.phone}   {shipping.address}</t>
@@ -287,7 +287,7 @@
     <t>{goodone.label}</t>
   </si>
   <si>
-    <t>{goodone.name}  {goodone.bulkCargoAmount}/{goodone.bulkCargoUnit}  {goodone.totalWeight}KG   {goodone.volume}</t>
+    <t>{goodone.name}   {goodone.plateAmount}{goodone.plateUnit}    {goodone.bulkCargoAmount}{goodone.bulkCargoUnit}  {goodone.totalWeight}KG   {goodone.volume}</t>
   </si>
   <si>
     <r>
@@ -490,20 +490,13 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">Payment Term </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color indexed="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -513,51 +506,11 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">   Prepaid </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Collect </t>
+      <t xml:space="preserve"> : Prepaid{whether6}  Collect{whether7} </t>
     </r>
   </si>
   <si>
@@ -642,6 +595,12 @@
     <t xml:space="preserve">Ocean Freight </t>
   </si>
   <si>
+    <t>{whether8}</t>
+  </si>
+  <si>
+    <t>{whether9}</t>
+  </si>
+  <si>
     <t>Booked by</t>
   </si>
   <si>
@@ -651,12 +610,30 @@
     <t>Origin THC</t>
   </si>
   <si>
+    <t>{whether10}</t>
+  </si>
+  <si>
+    <t>{whether11}</t>
+  </si>
+  <si>
     <t>Origin Local Charges</t>
   </si>
   <si>
+    <t>{whether12}</t>
+  </si>
+  <si>
+    <t>{whether13}</t>
+  </si>
+  <si>
     <t>Destination THC</t>
   </si>
   <si>
+    <t>{whether14}</t>
+  </si>
+  <si>
+    <t>{whether15}</t>
+  </si>
+  <si>
     <t>Consignee</t>
   </si>
   <si>
@@ -664,6 +641,12 @@
   </si>
   <si>
     <t>Destination Local Charges</t>
+  </si>
+  <si>
+    <t>{whether16}</t>
+  </si>
+  <si>
+    <t>{whether17}</t>
   </si>
   <si>
     <t xml:space="preserve">REMARKS (Example: Add BL clauses such as Freetime, destination agent contact etc)  : </t>
@@ -705,10 +688,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -791,59 +774,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,60 +787,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -927,9 +806,113 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -996,7 +979,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,145 +1105,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1164,19 +1135,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1591,13 +1574,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1607,6 +1594,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1628,24 +1645,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1658,36 +1671,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1696,10 +1679,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1708,133 +1691,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2007,7 +1990,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2299,74 +2282,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" noThreeD="1" val="0"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" noThreeD="1" val="0"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" noThreeD="1" val="0"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" noThreeD="1" val="0"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" noThreeD="1" val="0"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" noThreeD="1" val="0"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" noThreeD="1" val="0"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2411,1978 +2326,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>353060</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>695960</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1035" name="Check Box 11" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1035"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5839460" y="1533525"/>
-              <a:ext cx="342900" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vert="horz" anchor="ctr" anchorCtr="0" upright="1"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="zh-CN"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>571500</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>923925</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1036" name="Check Box 12" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1036"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8858250" y="1543050"/>
-              <a:ext cx="352425" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vert="horz" anchor="ctr" anchorCtr="0" upright="1"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="zh-CN"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>353060</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>695960</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1037" name="Check Box 13" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1037"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5839460" y="1866900"/>
-              <a:ext cx="342900" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vert="horz" anchor="ctr" anchorCtr="0" upright="1"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="zh-CN"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>353060</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>695960</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1038"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5839460" y="2057400"/>
-              <a:ext cx="342900" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vert="horz" anchor="ctr" anchorCtr="0" upright="1"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="zh-CN"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>361950</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1039"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5848350" y="2247900"/>
-              <a:ext cx="342900" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vert="horz" anchor="ctr" anchorCtr="0" upright="1"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="zh-CN"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>60</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>62</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1040"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2962275" y="10506075"/>
-              <a:ext cx="342900" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vert="horz" anchor="ctr" anchorCtr="0" upright="1"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="zh-CN"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>60</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
-          <xdr:row>62</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1041"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3600450" y="10515600"/>
-              <a:ext cx="342900" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vert="horz" anchor="ctr" anchorCtr="0" upright="1"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="zh-CN"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>61</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>63</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1042" name="Check Box 18" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1042"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2962275" y="10696575"/>
-              <a:ext cx="342900" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vert="horz" anchor="ctr" anchorCtr="0" upright="1"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="zh-CN"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>61</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
-          <xdr:row>63</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1043" name="Check Box 19" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1043"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3600450" y="10687050"/>
-              <a:ext cx="342900" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vert="horz" anchor="ctr" anchorCtr="0" upright="1"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="zh-CN"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>62</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>571500</xdr:colOff>
-          <xdr:row>64</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1044" name="Check Box 20" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1044"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2971800" y="10877550"/>
-              <a:ext cx="342900" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vert="horz" anchor="ctr" anchorCtr="0" upright="1"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="zh-CN"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>62</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
-          <xdr:row>64</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1045" name="Check Box 21" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1045"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3590925" y="10858500"/>
-              <a:ext cx="342900" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vert="horz" anchor="ctr" anchorCtr="0" upright="1"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="zh-CN"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>63</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>65</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1046" name="Check Box 22" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1046"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2962275" y="11049000"/>
-              <a:ext cx="342900" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vert="horz" anchor="ctr" anchorCtr="0" upright="1"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="zh-CN"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
-          <xdr:row>63</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
-          <xdr:row>65</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1047" name="Check Box 23" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1047"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3609975" y="11039475"/>
-              <a:ext cx="342900" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vert="horz" anchor="ctr" anchorCtr="0" upright="1"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="zh-CN"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>247650</xdr:colOff>
-          <xdr:row>64</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
-          <xdr:row>66</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1048" name="Check Box 24" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1048"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2990850" y="11201400"/>
-              <a:ext cx="342900" cy="219075"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vert="horz" anchor="ctr" anchorCtr="0" upright="1"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="zh-CN"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
-          <xdr:row>64</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>533400</xdr:colOff>
-          <xdr:row>66</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1049" name="Check Box 25" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3619500" y="11210925"/>
-              <a:ext cx="342900" cy="219075"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vert="horz" anchor="ctr" anchorCtr="0" upright="1"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="zh-CN"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>553085</xdr:colOff>
-          <xdr:row>58</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>208915</xdr:colOff>
-          <xdr:row>59</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1050"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2610485" y="10020300"/>
-              <a:ext cx="341630" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vert="horz" anchor="ctr" anchorCtr="0" upright="1"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="zh-CN"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
-          <xdr:row>58</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>59</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1051" name="Check Box 27" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1051"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3629025" y="10020300"/>
-              <a:ext cx="342900" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vert="horz" anchor="ctr" anchorCtr="0" upright="1"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="zh-CN"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -4646,8 +2589,8 @@
   <sheetPr/>
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65:J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5580,90 +3523,110 @@
       <c r="B62" s="87"/>
       <c r="C62" s="87"/>
       <c r="D62" s="88"/>
-      <c r="E62" s="89"/>
-      <c r="F62" s="89"/>
+      <c r="E62" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="F62" s="89" t="s">
+        <v>68</v>
+      </c>
       <c r="G62" s="85" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H62" s="85"/>
       <c r="I62" s="89" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J62" s="89"/>
       <c r="K62" s="146"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="86" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B63" s="87"/>
       <c r="C63" s="87"/>
       <c r="D63" s="88"/>
-      <c r="E63" s="89"/>
-      <c r="F63" s="89"/>
+      <c r="E63" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="F63" s="89" t="s">
+        <v>73</v>
+      </c>
       <c r="G63" s="85" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H63" s="85"/>
       <c r="I63" s="89" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J63" s="89"/>
       <c r="K63" s="146"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="86" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B64" s="87"/>
       <c r="C64" s="87"/>
       <c r="D64" s="88"/>
-      <c r="E64" s="89"/>
-      <c r="F64" s="89"/>
+      <c r="E64" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="F64" s="89" t="s">
+        <v>76</v>
+      </c>
       <c r="G64" s="85" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H64" s="85"/>
       <c r="I64" s="89" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J64" s="89"/>
       <c r="K64" s="146"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="86" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B65" s="87"/>
       <c r="C65" s="87"/>
       <c r="D65" s="88"/>
-      <c r="E65" s="89"/>
-      <c r="F65" s="89"/>
+      <c r="E65" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="F65" s="89" t="s">
+        <v>79</v>
+      </c>
       <c r="G65" s="85" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H65" s="85"/>
       <c r="I65" s="89" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="J65" s="89"/>
       <c r="K65" s="146"/>
     </row>
     <row r="66" ht="14.25" spans="1:11">
       <c r="A66" s="147" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B66" s="148"/>
       <c r="C66" s="148"/>
       <c r="D66" s="149"/>
-      <c r="E66" s="150"/>
-      <c r="F66" s="149"/>
+      <c r="E66" s="150" t="s">
+        <v>83</v>
+      </c>
+      <c r="F66" s="149" t="s">
+        <v>84</v>
+      </c>
       <c r="G66" s="151" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H66" s="152"/>
       <c r="I66" s="147" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="J66" s="149"/>
       <c r="K66" s="169"/>
@@ -5683,7 +3646,7 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="153" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B68" s="154"/>
       <c r="C68" s="154"/>
@@ -5698,7 +3661,7 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="155" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B69" s="105"/>
       <c r="C69" s="105"/>
@@ -5726,7 +3689,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="156" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B71" s="157"/>
       <c r="C71" s="157"/>
@@ -5741,7 +3704,7 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="159" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B72" s="157"/>
       <c r="C72" s="157"/>
@@ -5756,7 +3719,7 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="159" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B73" s="157"/>
       <c r="C73" s="157"/>
@@ -5771,7 +3734,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="159" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B74" s="157"/>
       <c r="C74" s="157"/>
@@ -5786,7 +3749,7 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="159" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B75" s="157"/>
       <c r="C75" s="157"/>
@@ -5801,7 +3764,7 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="160" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B76" s="161" t="e">
         <f>#REF!</f>
@@ -5819,7 +3782,7 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="160" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B77" s="161">
         <f>A44</f>
@@ -5837,7 +3800,7 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="160" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B78" s="162"/>
       <c r="C78" s="163"/>
@@ -5852,7 +3815,7 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="160" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B79" s="164">
         <f>J44+B78</f>
@@ -5870,7 +3833,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="166" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B80" s="158"/>
       <c r="C80" s="158"/>
@@ -5885,7 +3848,7 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="167" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B81" s="168"/>
       <c r="C81" s="168"/>
@@ -6007,386 +3970,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1035" name="Check Box 11" r:id="rId3">
-              <controlPr defaultSize="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>353060</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>695960</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1036" name="Check Box 12" r:id="rId4">
-              <controlPr defaultSize="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>571500</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>923925</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1037" name="Check Box 13" r:id="rId5">
-              <controlPr defaultSize="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>353060</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>695960</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1038" name="Check Box 14" r:id="rId6">
-              <controlPr defaultSize="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>353060</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>695960</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1039" name="Check Box 15" r:id="rId7">
-              <controlPr defaultSize="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>361950</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>704850</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1040" name="Check Box 16" r:id="rId8">
-              <controlPr defaultSize="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>219075</xdr:colOff>
-                    <xdr:row>60</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>62</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1041" name="Check Box 17" r:id="rId9">
-              <controlPr defaultSize="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>60</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>514350</xdr:colOff>
-                    <xdr:row>62</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1042" name="Check Box 18" r:id="rId10">
-              <controlPr defaultSize="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>219075</xdr:colOff>
-                    <xdr:row>61</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>63</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1043" name="Check Box 19" r:id="rId11">
-              <controlPr defaultSize="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>61</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>514350</xdr:colOff>
-                    <xdr:row>63</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1044" name="Check Box 20" r:id="rId12">
-              <controlPr defaultSize="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>228600</xdr:colOff>
-                    <xdr:row>62</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>571500</xdr:colOff>
-                    <xdr:row>64</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1045" name="Check Box 21" r:id="rId13">
-              <controlPr defaultSize="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>161925</xdr:colOff>
-                    <xdr:row>62</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>504825</xdr:colOff>
-                    <xdr:row>64</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1046" name="Check Box 22" r:id="rId14">
-              <controlPr defaultSize="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>219075</xdr:colOff>
-                    <xdr:row>63</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>65</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1047" name="Check Box 23" r:id="rId15">
-              <controlPr defaultSize="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
-                    <xdr:row>63</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>523875</xdr:colOff>
-                    <xdr:row>65</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1048" name="Check Box 24" r:id="rId16">
-              <controlPr defaultSize="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>247650</xdr:colOff>
-                    <xdr:row>64</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
-                    <xdr:row>66</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1049" name="Check Box 25" r:id="rId17">
-              <controlPr defaultSize="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>190500</xdr:colOff>
-                    <xdr:row>64</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>533400</xdr:colOff>
-                    <xdr:row>66</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1050" name="Check Box 26" r:id="rId18">
-              <controlPr defaultSize="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>553085</xdr:colOff>
-                    <xdr:row>58</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>208915</xdr:colOff>
-                    <xdr:row>59</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1051" name="Check Box 27" r:id="rId19">
-              <controlPr defaultSize="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
-                    <xdr:row>58</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>542925</xdr:colOff>
-                    <xdr:row>59</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
 </worksheet>
 </file>